--- a/natmiOut/OldD2/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2403141722858</v>
+        <v>11.4473355</v>
       </c>
       <c r="H2">
-        <v>11.2403141722858</v>
+        <v>22.894671</v>
       </c>
       <c r="I2">
-        <v>0.3300196969831207</v>
+        <v>0.3003257587641364</v>
       </c>
       <c r="J2">
-        <v>0.3300196969831207</v>
+        <v>0.2357910158160937</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.8070074854402</v>
+        <v>94.81147350000001</v>
       </c>
       <c r="N2">
-        <v>94.8070074854402</v>
+        <v>189.622947</v>
       </c>
       <c r="O2">
-        <v>0.6484961404762909</v>
+        <v>0.6448118471026588</v>
       </c>
       <c r="P2">
-        <v>0.6484961404762909</v>
+        <v>0.5478387621460925</v>
       </c>
       <c r="Q2">
-        <v>1065.660549870599</v>
+        <v>1085.338746403859</v>
       </c>
       <c r="R2">
-        <v>1065.660549870599</v>
+        <v>4341.354985615437</v>
       </c>
       <c r="S2">
-        <v>0.2140164997747088</v>
+        <v>0.1936536072412103</v>
       </c>
       <c r="T2">
-        <v>0.2140164997747088</v>
+        <v>0.1291754582298585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2403141722858</v>
+        <v>11.4473355</v>
       </c>
       <c r="H3">
-        <v>11.2403141722858</v>
+        <v>22.894671</v>
       </c>
       <c r="I3">
-        <v>0.3300196969831207</v>
+        <v>0.3003257587641364</v>
       </c>
       <c r="J3">
-        <v>0.3300196969831207</v>
+        <v>0.2357910158160937</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>51.2239212974518</v>
+        <v>0.038383</v>
       </c>
       <c r="N3">
-        <v>51.2239212974518</v>
+        <v>0.115149</v>
       </c>
       <c r="O3">
-        <v>0.3503803794942082</v>
+        <v>0.0002610423845732273</v>
       </c>
       <c r="P3">
-        <v>0.3503803794942082</v>
+        <v>0.0003326764329971119</v>
       </c>
       <c r="Q3">
-        <v>575.7729685197999</v>
+        <v>0.4393830784965</v>
       </c>
       <c r="R3">
-        <v>575.7729685197999</v>
+        <v>2.636298470979</v>
       </c>
       <c r="S3">
-        <v>0.1156324266695094</v>
+        <v>7.839775221655398E-05</v>
       </c>
       <c r="T3">
-        <v>0.1156324266695094</v>
+        <v>7.844211407446364E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2403141722858</v>
+        <v>11.4473355</v>
       </c>
       <c r="H4">
-        <v>11.2403141722858</v>
+        <v>22.894671</v>
       </c>
       <c r="I4">
-        <v>0.3300196969831207</v>
+        <v>0.3003257587641364</v>
       </c>
       <c r="J4">
-        <v>0.3300196969831207</v>
+        <v>0.2357910158160937</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.164247360806803</v>
+        <v>0.04220533333333334</v>
       </c>
       <c r="N4">
-        <v>0.164247360806803</v>
+        <v>0.126616</v>
       </c>
       <c r="O4">
-        <v>0.001123480029500838</v>
+        <v>0.0002870380338962888</v>
       </c>
       <c r="P4">
-        <v>0.001123480029500838</v>
+        <v>0.0003658056886326613</v>
       </c>
       <c r="Q4">
-        <v>1.846191937437247</v>
+        <v>0.483138610556</v>
       </c>
       <c r="R4">
-        <v>1.846191937437247</v>
+        <v>2.898831663336</v>
       </c>
       <c r="S4">
-        <v>0.0003707705389024542</v>
+        <v>8.620491532406881E-05</v>
       </c>
       <c r="T4">
-        <v>0.0003707705389024542</v>
+        <v>8.62536949140009E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.31667516751791</v>
+        <v>11.4473355</v>
       </c>
       <c r="H5">
-        <v>1.31667516751791</v>
+        <v>22.894671</v>
       </c>
       <c r="I5">
-        <v>0.03865806001053222</v>
+        <v>0.3003257587641364</v>
       </c>
       <c r="J5">
-        <v>0.03865806001053222</v>
+        <v>0.2357910158160937</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>94.8070074854402</v>
+        <v>0.113114</v>
       </c>
       <c r="N5">
-        <v>94.8070074854402</v>
+        <v>0.339342</v>
       </c>
       <c r="O5">
-        <v>0.6484961404762909</v>
+        <v>0.0007692871398435774</v>
       </c>
       <c r="P5">
-        <v>0.6484961404762909</v>
+        <v>0.0009803913722751039</v>
       </c>
       <c r="Q5">
-        <v>124.8300324627637</v>
+        <v>1.294853907747</v>
       </c>
       <c r="R5">
-        <v>124.8300324627637</v>
+        <v>7.769123446481999</v>
       </c>
       <c r="S5">
-        <v>0.02506960271513099</v>
+        <v>0.0002310367439810147</v>
       </c>
       <c r="T5">
-        <v>0.02506960271513099</v>
+        <v>0.0002311674775660808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.31667516751791</v>
+        <v>11.4473355</v>
       </c>
       <c r="H6">
-        <v>1.31667516751791</v>
+        <v>22.894671</v>
       </c>
       <c r="I6">
-        <v>0.03865806001053222</v>
+        <v>0.3003257587641364</v>
       </c>
       <c r="J6">
-        <v>0.03865806001053222</v>
+        <v>0.2357910158160937</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.2239212974518</v>
+        <v>51.860565</v>
       </c>
       <c r="N6">
-        <v>51.2239212974518</v>
+        <v>155.581695</v>
       </c>
       <c r="O6">
-        <v>0.3503803794942082</v>
+        <v>0.3527031642371584</v>
       </c>
       <c r="P6">
-        <v>0.3503803794942082</v>
+        <v>0.4494903414901093</v>
       </c>
       <c r="Q6">
-        <v>67.44526515524659</v>
+        <v>593.6652867745574</v>
       </c>
       <c r="R6">
-        <v>67.44526515524659</v>
+        <v>3561.991720647345</v>
       </c>
       <c r="S6">
-        <v>0.01354502573700015</v>
+        <v>0.1059258454180364</v>
       </c>
       <c r="T6">
-        <v>0.01354502573700015</v>
+        <v>0.1059857842194757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.31667516751791</v>
+        <v>11.4473355</v>
       </c>
       <c r="H7">
-        <v>1.31667516751791</v>
+        <v>22.894671</v>
       </c>
       <c r="I7">
-        <v>0.03865806001053222</v>
+        <v>0.3003257587641364</v>
       </c>
       <c r="J7">
-        <v>0.03865806001053222</v>
+        <v>0.2357910158160937</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.164247360806803</v>
+        <v>0.171684</v>
       </c>
       <c r="N7">
-        <v>0.164247360806803</v>
+        <v>0.343368</v>
       </c>
       <c r="O7">
-        <v>0.001123480029500838</v>
+        <v>0.001167621101869837</v>
       </c>
       <c r="P7">
-        <v>0.001123480029500838</v>
+        <v>0.0009920228698933756</v>
       </c>
       <c r="Q7">
-        <v>0.2162604213046719</v>
+        <v>1.965324347982</v>
       </c>
       <c r="R7">
-        <v>0.2162604213046719</v>
+        <v>7.861297391928</v>
       </c>
       <c r="S7">
-        <v>4.343155840107792E-05</v>
+        <v>0.0003506666933680758</v>
       </c>
       <c r="T7">
-        <v>4.343155840107792E-05</v>
+        <v>0.0002339100802049556</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.44367769911693</v>
+        <v>1.342192</v>
       </c>
       <c r="H8">
-        <v>2.44367769911693</v>
+        <v>4.026576</v>
       </c>
       <c r="I8">
-        <v>0.07174726270333232</v>
+        <v>0.03521298303934167</v>
       </c>
       <c r="J8">
-        <v>0.07174726270333232</v>
+        <v>0.04146949503230264</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.8070074854402</v>
+        <v>94.81147350000001</v>
       </c>
       <c r="N8">
-        <v>94.8070074854402</v>
+        <v>189.622947</v>
       </c>
       <c r="O8">
-        <v>0.6484961404762909</v>
+        <v>0.6448118471026588</v>
       </c>
       <c r="P8">
-        <v>0.6484961404762909</v>
+        <v>0.5478387621460925</v>
       </c>
       <c r="Q8">
-        <v>231.677769912182</v>
+        <v>127.255201239912</v>
       </c>
       <c r="R8">
-        <v>231.677769912182</v>
+        <v>763.5312074394722</v>
       </c>
       <c r="S8">
-        <v>0.04652782295284954</v>
+        <v>0.0227057486355925</v>
       </c>
       <c r="T8">
-        <v>0.04652782295284954</v>
+        <v>0.02271859682532021</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,184 +968,184 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.44367769911693</v>
+        <v>1.342192</v>
       </c>
       <c r="H9">
-        <v>2.44367769911693</v>
+        <v>4.026576</v>
       </c>
       <c r="I9">
-        <v>0.07174726270333232</v>
+        <v>0.03521298303934167</v>
       </c>
       <c r="J9">
-        <v>0.07174726270333232</v>
+        <v>0.04146949503230264</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>51.2239212974518</v>
+        <v>0.038383</v>
       </c>
       <c r="N9">
-        <v>51.2239212974518</v>
+        <v>0.115149</v>
       </c>
       <c r="O9">
-        <v>0.3503803794942082</v>
+        <v>0.0002610423845732273</v>
       </c>
       <c r="P9">
-        <v>0.3503803794942082</v>
+        <v>0.0003326764329971119</v>
       </c>
       <c r="Q9">
-        <v>125.1747541359037</v>
+        <v>0.051517355536</v>
       </c>
       <c r="R9">
-        <v>125.1747541359037</v>
+        <v>0.463656199824</v>
       </c>
       <c r="S9">
-        <v>0.02513883313366422</v>
+        <v>9.192081060526358E-06</v>
       </c>
       <c r="T9">
-        <v>0.02513883313366422</v>
+        <v>1.379592368553789E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.44367769911693</v>
+        <v>1.342192</v>
       </c>
       <c r="H10">
-        <v>2.44367769911693</v>
+        <v>4.026576</v>
       </c>
       <c r="I10">
-        <v>0.07174726270333232</v>
+        <v>0.03521298303934167</v>
       </c>
       <c r="J10">
-        <v>0.07174726270333232</v>
+        <v>0.04146949503230264</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.164247360806803</v>
+        <v>0.04220533333333334</v>
       </c>
       <c r="N10">
-        <v>0.164247360806803</v>
+        <v>0.126616</v>
       </c>
       <c r="O10">
-        <v>0.001123480029500838</v>
+        <v>0.0002870380338962888</v>
       </c>
       <c r="P10">
-        <v>0.001123480029500838</v>
+        <v>0.0003658056886326613</v>
       </c>
       <c r="Q10">
-        <v>0.4013676127423965</v>
+        <v>0.05664766075733334</v>
       </c>
       <c r="R10">
-        <v>0.4013676127423965</v>
+        <v>0.5098289468160001</v>
       </c>
       <c r="S10">
-        <v>8.060661681854419E-05</v>
+        <v>1.010746541923599E-05</v>
       </c>
       <c r="T10">
-        <v>8.060661681854419E-05</v>
+        <v>1.51697771875402E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.00488219205462</v>
+        <v>1.342192</v>
       </c>
       <c r="H11">
-        <v>2.00488219205462</v>
+        <v>4.026576</v>
       </c>
       <c r="I11">
-        <v>0.05886406762011074</v>
+        <v>0.03521298303934167</v>
       </c>
       <c r="J11">
-        <v>0.05886406762011074</v>
+        <v>0.04146949503230264</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>94.8070074854402</v>
+        <v>0.113114</v>
       </c>
       <c r="N11">
-        <v>94.8070074854402</v>
+        <v>0.339342</v>
       </c>
       <c r="O11">
-        <v>0.6484961404762909</v>
+        <v>0.0007692871398435774</v>
       </c>
       <c r="P11">
-        <v>0.6484961404762909</v>
+        <v>0.0009803913722751039</v>
       </c>
       <c r="Q11">
-        <v>190.0768809895481</v>
+        <v>0.151820705888</v>
       </c>
       <c r="R11">
-        <v>190.0768809895481</v>
+        <v>1.366386352992</v>
       </c>
       <c r="S11">
-        <v>0.03817312066437722</v>
+        <v>2.708889500769555E-05</v>
       </c>
       <c r="T11">
-        <v>0.03817312066437722</v>
+        <v>4.065633514227479E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.00488219205462</v>
+        <v>1.342192</v>
       </c>
       <c r="H12">
-        <v>2.00488219205462</v>
+        <v>4.026576</v>
       </c>
       <c r="I12">
-        <v>0.05886406762011074</v>
+        <v>0.03521298303934167</v>
       </c>
       <c r="J12">
-        <v>0.05886406762011074</v>
+        <v>0.04146949503230264</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>51.2239212974518</v>
+        <v>51.860565</v>
       </c>
       <c r="N12">
-        <v>51.2239212974518</v>
+        <v>155.581695</v>
       </c>
       <c r="O12">
-        <v>0.3503803794942082</v>
+        <v>0.3527031642371584</v>
       </c>
       <c r="P12">
-        <v>0.3503803794942082</v>
+        <v>0.4494903414901093</v>
       </c>
       <c r="Q12">
-        <v>102.6979276164685</v>
+        <v>69.60683545848001</v>
       </c>
       <c r="R12">
-        <v>102.6979276164685</v>
+        <v>626.46151912632</v>
       </c>
       <c r="S12">
-        <v>0.02062481435130713</v>
+        <v>0.0124197305402052</v>
       </c>
       <c r="T12">
-        <v>0.02062481435130713</v>
+        <v>0.01864013748349211</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.00488219205462</v>
+        <v>1.342192</v>
       </c>
       <c r="H13">
-        <v>2.00488219205462</v>
+        <v>4.026576</v>
       </c>
       <c r="I13">
-        <v>0.05886406762011074</v>
+        <v>0.03521298303934167</v>
       </c>
       <c r="J13">
-        <v>0.05886406762011074</v>
+        <v>0.04146949503230264</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.164247360806803</v>
+        <v>0.171684</v>
       </c>
       <c r="N13">
-        <v>0.164247360806803</v>
+        <v>0.343368</v>
       </c>
       <c r="O13">
-        <v>0.001123480029500838</v>
+        <v>0.001167621101869837</v>
       </c>
       <c r="P13">
-        <v>0.001123480029500838</v>
+        <v>0.0009920228698933756</v>
       </c>
       <c r="Q13">
-        <v>0.3292966087735293</v>
+        <v>0.230432891328</v>
       </c>
       <c r="R13">
-        <v>0.3292966087735293</v>
+        <v>1.382597347968</v>
       </c>
       <c r="S13">
-        <v>6.613260442638136E-05</v>
+        <v>4.111542205652E-05</v>
       </c>
       <c r="T13">
-        <v>6.613260442638136E-05</v>
+        <v>4.113868747497395E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.8286083263414</v>
+        <v>2.534586666666667</v>
       </c>
       <c r="H14">
-        <v>11.8286083263414</v>
+        <v>7.60376</v>
       </c>
       <c r="I14">
-        <v>0.3472922265123277</v>
+        <v>0.0664959687623491</v>
       </c>
       <c r="J14">
-        <v>0.3472922265123277</v>
+        <v>0.07831072542696861</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.8070074854402</v>
+        <v>94.81147350000001</v>
       </c>
       <c r="N14">
-        <v>94.8070074854402</v>
+        <v>189.622947</v>
       </c>
       <c r="O14">
-        <v>0.6484961404762909</v>
+        <v>0.6448118471026588</v>
       </c>
       <c r="P14">
-        <v>0.6484961404762909</v>
+        <v>0.5478387621460925</v>
       </c>
       <c r="Q14">
-        <v>1121.434958137789</v>
+        <v>240.30789658012</v>
       </c>
       <c r="R14">
-        <v>1121.434958137789</v>
+        <v>1441.84737948072</v>
       </c>
       <c r="S14">
-        <v>0.2252176685106623</v>
+        <v>0.04287738844253103</v>
       </c>
       <c r="T14">
-        <v>0.2252176685106623</v>
+        <v>0.04290165088067301</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.8286083263414</v>
+        <v>2.534586666666667</v>
       </c>
       <c r="H15">
-        <v>11.8286083263414</v>
+        <v>7.60376</v>
       </c>
       <c r="I15">
-        <v>0.3472922265123277</v>
+        <v>0.0664959687623491</v>
       </c>
       <c r="J15">
-        <v>0.3472922265123277</v>
+        <v>0.07831072542696861</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>51.2239212974518</v>
+        <v>0.038383</v>
       </c>
       <c r="N15">
-        <v>51.2239212974518</v>
+        <v>0.115149</v>
       </c>
       <c r="O15">
-        <v>0.3503803794942082</v>
+        <v>0.0002610423845732273</v>
       </c>
       <c r="P15">
-        <v>0.3503803794942082</v>
+        <v>0.0003326764329971119</v>
       </c>
       <c r="Q15">
-        <v>605.9077019668949</v>
+        <v>0.09728504002666667</v>
       </c>
       <c r="R15">
-        <v>605.9077019668949</v>
+        <v>0.8755653602400001</v>
       </c>
       <c r="S15">
-        <v>0.1216843821207779</v>
+        <v>1.735826625023045E-05</v>
       </c>
       <c r="T15">
-        <v>0.1216843821207779</v>
+        <v>2.605213280046015E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.8286083263414</v>
+        <v>2.534586666666667</v>
       </c>
       <c r="H16">
-        <v>11.8286083263414</v>
+        <v>7.60376</v>
       </c>
       <c r="I16">
-        <v>0.3472922265123277</v>
+        <v>0.0664959687623491</v>
       </c>
       <c r="J16">
-        <v>0.3472922265123277</v>
+        <v>0.07831072542696861</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.164247360806803</v>
+        <v>0.04220533333333334</v>
       </c>
       <c r="N16">
-        <v>0.164247360806803</v>
+        <v>0.126616</v>
       </c>
       <c r="O16">
-        <v>0.001123480029500838</v>
+        <v>0.0002870380338962888</v>
       </c>
       <c r="P16">
-        <v>0.001123480029500838</v>
+        <v>0.0003658056886326613</v>
       </c>
       <c r="Q16">
-        <v>1.94281769961895</v>
+        <v>0.1069730751288889</v>
       </c>
       <c r="R16">
-        <v>1.94281769961895</v>
+        <v>0.9627576761600001</v>
       </c>
       <c r="S16">
-        <v>0.0003901758808874818</v>
+        <v>1.908687213557372E-05</v>
       </c>
       <c r="T16">
-        <v>0.0003901758808874818</v>
+        <v>2.864650884213551E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.22536760145198</v>
+        <v>2.534586666666667</v>
       </c>
       <c r="H17">
-        <v>5.22536760145198</v>
+        <v>7.60376</v>
       </c>
       <c r="I17">
-        <v>0.1534186861705765</v>
+        <v>0.0664959687623491</v>
       </c>
       <c r="J17">
-        <v>0.1534186861705765</v>
+        <v>0.07831072542696861</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>94.8070074854402</v>
+        <v>0.113114</v>
       </c>
       <c r="N17">
-        <v>94.8070074854402</v>
+        <v>0.339342</v>
       </c>
       <c r="O17">
-        <v>0.6484961404762909</v>
+        <v>0.0007692871398435774</v>
       </c>
       <c r="P17">
-        <v>0.6484961404762909</v>
+        <v>0.0009803913722751039</v>
       </c>
       <c r="Q17">
-        <v>495.4014653050345</v>
+        <v>0.2866972362133333</v>
       </c>
       <c r="R17">
-        <v>495.4014653050345</v>
+        <v>2.58027512592</v>
       </c>
       <c r="S17">
-        <v>0.09949142585856216</v>
+        <v>5.11544936203154E-05</v>
       </c>
       <c r="T17">
-        <v>0.09949142585856216</v>
+        <v>7.677515956520463E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,57 +1529,57 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.22536760145198</v>
+        <v>2.534586666666667</v>
       </c>
       <c r="H18">
-        <v>5.22536760145198</v>
+        <v>7.60376</v>
       </c>
       <c r="I18">
-        <v>0.1534186861705765</v>
+        <v>0.0664959687623491</v>
       </c>
       <c r="J18">
-        <v>0.1534186861705765</v>
+        <v>0.07831072542696861</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>51.2239212974518</v>
+        <v>51.860565</v>
       </c>
       <c r="N18">
-        <v>51.2239212974518</v>
+        <v>155.581695</v>
       </c>
       <c r="O18">
-        <v>0.3503803794942082</v>
+        <v>0.3527031642371584</v>
       </c>
       <c r="P18">
-        <v>0.3503803794942082</v>
+        <v>0.4494903414901093</v>
       </c>
       <c r="Q18">
-        <v>267.6638187670307</v>
+        <v>131.4450965748</v>
       </c>
       <c r="R18">
-        <v>267.6638187670307</v>
+        <v>1183.0058691732</v>
       </c>
       <c r="S18">
-        <v>0.05375489748194942</v>
+        <v>0.02345333859149577</v>
       </c>
       <c r="T18">
-        <v>0.05375489748194942</v>
+        <v>0.03519991471450631</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,52 +1591,1168 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.22536760145198</v>
+        <v>2.534586666666667</v>
       </c>
       <c r="H19">
-        <v>5.22536760145198</v>
+        <v>7.60376</v>
       </c>
       <c r="I19">
-        <v>0.1534186861705765</v>
+        <v>0.0664959687623491</v>
       </c>
       <c r="J19">
-        <v>0.1534186861705765</v>
+        <v>0.07831072542696861</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.164247360806803</v>
+        <v>0.171684</v>
       </c>
       <c r="N19">
-        <v>0.164247360806803</v>
+        <v>0.343368</v>
       </c>
       <c r="O19">
-        <v>0.001123480029500838</v>
+        <v>0.001167621101869837</v>
       </c>
       <c r="P19">
-        <v>0.001123480029500838</v>
+        <v>0.0009920228698933756</v>
       </c>
       <c r="Q19">
-        <v>0.8582528377838621</v>
+        <v>0.43514797728</v>
       </c>
       <c r="R19">
-        <v>0.8582528377838621</v>
+        <v>2.61088786368</v>
       </c>
       <c r="S19">
-        <v>0.0001723628300648992</v>
+        <v>7.764209631619634E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001723628300648992</v>
+        <v>7.768603058149354E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.071032666666667</v>
+      </c>
+      <c r="H20">
+        <v>6.213098</v>
+      </c>
+      <c r="I20">
+        <v>0.05433443066659307</v>
+      </c>
+      <c r="J20">
+        <v>0.06398837042842591</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>94.81147350000001</v>
+      </c>
+      <c r="N20">
+        <v>189.622947</v>
+      </c>
+      <c r="O20">
+        <v>0.6448118471026588</v>
+      </c>
+      <c r="P20">
+        <v>0.5478387621460925</v>
+      </c>
+      <c r="Q20">
+        <v>196.357658793301</v>
+      </c>
+      <c r="R20">
+        <v>1178.145952759806</v>
+      </c>
+      <c r="S20">
+        <v>0.03503548459939722</v>
+      </c>
+      <c r="T20">
+        <v>0.03505530964725448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.071032666666667</v>
+      </c>
+      <c r="H21">
+        <v>6.213098</v>
+      </c>
+      <c r="I21">
+        <v>0.05433443066659307</v>
+      </c>
+      <c r="J21">
+        <v>0.06398837042842591</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.038383</v>
+      </c>
+      <c r="N21">
+        <v>0.115149</v>
+      </c>
+      <c r="O21">
+        <v>0.0002610423845732273</v>
+      </c>
+      <c r="P21">
+        <v>0.0003326764329971119</v>
+      </c>
+      <c r="Q21">
+        <v>0.07949244684466668</v>
+      </c>
+      <c r="R21">
+        <v>0.715432021602</v>
+      </c>
+      <c r="S21">
+        <v>1.418358934563615E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.128742282742661E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.071032666666667</v>
+      </c>
+      <c r="H22">
+        <v>6.213098</v>
+      </c>
+      <c r="I22">
+        <v>0.05433443066659307</v>
+      </c>
+      <c r="J22">
+        <v>0.06398837042842591</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.04220533333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.126616</v>
+      </c>
+      <c r="O22">
+        <v>0.0002870380338962888</v>
+      </c>
+      <c r="P22">
+        <v>0.0003658056886326613</v>
+      </c>
+      <c r="Q22">
+        <v>0.08740862404088891</v>
+      </c>
+      <c r="R22">
+        <v>0.786677616368</v>
+      </c>
+      <c r="S22">
+        <v>1.559604815141309E-05</v>
+      </c>
+      <c r="T22">
+        <v>2.340730990905216E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.071032666666667</v>
+      </c>
+      <c r="H23">
+        <v>6.213098</v>
+      </c>
+      <c r="I23">
+        <v>0.05433443066659307</v>
+      </c>
+      <c r="J23">
+        <v>0.06398837042842591</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.113114</v>
+      </c>
+      <c r="N23">
+        <v>0.339342</v>
+      </c>
+      <c r="O23">
+        <v>0.0007692871398435774</v>
+      </c>
+      <c r="P23">
+        <v>0.0009803913722751039</v>
+      </c>
+      <c r="Q23">
+        <v>0.2342627890573334</v>
+      </c>
+      <c r="R23">
+        <v>2.108365101516</v>
+      </c>
+      <c r="S23">
+        <v>4.179877876253254E-05</v>
+      </c>
+      <c r="T23">
+        <v>6.273364629397215E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.071032666666667</v>
+      </c>
+      <c r="H24">
+        <v>6.213098</v>
+      </c>
+      <c r="I24">
+        <v>0.05433443066659307</v>
+      </c>
+      <c r="J24">
+        <v>0.06398837042842591</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>51.860565</v>
+      </c>
+      <c r="N24">
+        <v>155.581695</v>
+      </c>
+      <c r="O24">
+        <v>0.3527031642371584</v>
+      </c>
+      <c r="P24">
+        <v>0.4494903414901093</v>
+      </c>
+      <c r="Q24">
+        <v>107.40492422679</v>
+      </c>
+      <c r="R24">
+        <v>966.6443180411101</v>
+      </c>
+      <c r="S24">
+        <v>0.01916392562313187</v>
+      </c>
+      <c r="T24">
+        <v>0.02876215447526877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.071032666666667</v>
+      </c>
+      <c r="H25">
+        <v>6.213098</v>
+      </c>
+      <c r="I25">
+        <v>0.05433443066659307</v>
+      </c>
+      <c r="J25">
+        <v>0.06398837042842591</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.171684</v>
+      </c>
+      <c r="N25">
+        <v>0.343368</v>
+      </c>
+      <c r="O25">
+        <v>0.001167621101869837</v>
+      </c>
+      <c r="P25">
+        <v>0.0009920228698933756</v>
+      </c>
+      <c r="Q25">
+        <v>0.355563172344</v>
+      </c>
+      <c r="R25">
+        <v>2.133379034064</v>
+      </c>
+      <c r="S25">
+        <v>6.344202780439767E-05</v>
+      </c>
+      <c r="T25">
+        <v>6.347792687220747E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>14.916697</v>
+      </c>
+      <c r="H26">
+        <v>44.750091</v>
+      </c>
+      <c r="I26">
+        <v>0.3913459463802487</v>
+      </c>
+      <c r="J26">
+        <v>0.460878840091331</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>94.81147350000001</v>
+      </c>
+      <c r="N26">
+        <v>189.622947</v>
+      </c>
+      <c r="O26">
+        <v>0.6448118471026588</v>
+      </c>
+      <c r="P26">
+        <v>0.5478387621460925</v>
+      </c>
+      <c r="Q26">
+        <v>1414.27402232303</v>
+      </c>
+      <c r="R26">
+        <v>8485.644133938178</v>
+      </c>
+      <c r="S26">
+        <v>0.2523445025415862</v>
+      </c>
+      <c r="T26">
+        <v>0.2524872932549617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>14.916697</v>
+      </c>
+      <c r="H27">
+        <v>44.750091</v>
+      </c>
+      <c r="I27">
+        <v>0.3913459463802487</v>
+      </c>
+      <c r="J27">
+        <v>0.460878840091331</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.038383</v>
+      </c>
+      <c r="N27">
+        <v>0.115149</v>
+      </c>
+      <c r="O27">
+        <v>0.0002610423845732273</v>
+      </c>
+      <c r="P27">
+        <v>0.0003326764329971119</v>
+      </c>
+      <c r="Q27">
+        <v>0.572547580951</v>
+      </c>
+      <c r="R27">
+        <v>5.152928228559</v>
+      </c>
+      <c r="S27">
+        <v>0.0001021578790361665</v>
+      </c>
+      <c r="T27">
+        <v>0.0001533235285654303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>14.916697</v>
+      </c>
+      <c r="H28">
+        <v>44.750091</v>
+      </c>
+      <c r="I28">
+        <v>0.3913459463802487</v>
+      </c>
+      <c r="J28">
+        <v>0.460878840091331</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.04220533333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.126616</v>
+      </c>
+      <c r="O28">
+        <v>0.0002870380338962888</v>
+      </c>
+      <c r="P28">
+        <v>0.0003658056886326613</v>
+      </c>
+      <c r="Q28">
+        <v>0.6295641691173335</v>
+      </c>
+      <c r="R28">
+        <v>5.666077522056001</v>
+      </c>
+      <c r="S28">
+        <v>0.000112331171022269</v>
+      </c>
+      <c r="T28">
+        <v>0.0001685921014758316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>14.916697</v>
+      </c>
+      <c r="H29">
+        <v>44.750091</v>
+      </c>
+      <c r="I29">
+        <v>0.3913459463802487</v>
+      </c>
+      <c r="J29">
+        <v>0.460878840091331</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.113114</v>
+      </c>
+      <c r="N29">
+        <v>0.339342</v>
+      </c>
+      <c r="O29">
+        <v>0.0007692871398435774</v>
+      </c>
+      <c r="P29">
+        <v>0.0009803913722751039</v>
+      </c>
+      <c r="Q29">
+        <v>1.687287264458</v>
+      </c>
+      <c r="R29">
+        <v>15.185585380122</v>
+      </c>
+      <c r="S29">
+        <v>0.0003010574037802395</v>
+      </c>
+      <c r="T29">
+        <v>0.0004518416384896982</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>14.916697</v>
+      </c>
+      <c r="H30">
+        <v>44.750091</v>
+      </c>
+      <c r="I30">
+        <v>0.3913459463802487</v>
+      </c>
+      <c r="J30">
+        <v>0.460878840091331</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>51.860565</v>
+      </c>
+      <c r="N30">
+        <v>155.581695</v>
+      </c>
+      <c r="O30">
+        <v>0.3527031642371584</v>
+      </c>
+      <c r="P30">
+        <v>0.4494903414901093</v>
+      </c>
+      <c r="Q30">
+        <v>773.5883343538051</v>
+      </c>
+      <c r="R30">
+        <v>6962.295009184246</v>
+      </c>
+      <c r="S30">
+        <v>0.1380289535996991</v>
+      </c>
+      <c r="T30">
+        <v>0.2071605872182178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>14.916697</v>
+      </c>
+      <c r="H31">
+        <v>44.750091</v>
+      </c>
+      <c r="I31">
+        <v>0.3913459463802487</v>
+      </c>
+      <c r="J31">
+        <v>0.460878840091331</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.171684</v>
+      </c>
+      <c r="N31">
+        <v>0.343368</v>
+      </c>
+      <c r="O31">
+        <v>0.001167621101869837</v>
+      </c>
+      <c r="P31">
+        <v>0.0009920228698933756</v>
+      </c>
+      <c r="Q31">
+        <v>2.560958207748</v>
+      </c>
+      <c r="R31">
+        <v>15.365749246488</v>
+      </c>
+      <c r="S31">
+        <v>0.0004569437851248002</v>
+      </c>
+      <c r="T31">
+        <v>0.0004572023496205323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>5.804552</v>
+      </c>
+      <c r="H32">
+        <v>11.609104</v>
+      </c>
+      <c r="I32">
+        <v>0.1522849123873311</v>
+      </c>
+      <c r="J32">
+        <v>0.119561553204878</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>94.81147350000001</v>
+      </c>
+      <c r="N32">
+        <v>189.622947</v>
+      </c>
+      <c r="O32">
+        <v>0.6448118471026588</v>
+      </c>
+      <c r="P32">
+        <v>0.5478387621460925</v>
+      </c>
+      <c r="Q32">
+        <v>550.3381281273721</v>
+      </c>
+      <c r="R32">
+        <v>2201.352512509488</v>
+      </c>
+      <c r="S32">
+        <v>0.09819511564234155</v>
+      </c>
+      <c r="T32">
+        <v>0.06550045330802454</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>5.804552</v>
+      </c>
+      <c r="H33">
+        <v>11.609104</v>
+      </c>
+      <c r="I33">
+        <v>0.1522849123873311</v>
+      </c>
+      <c r="J33">
+        <v>0.119561553204878</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.038383</v>
+      </c>
+      <c r="N33">
+        <v>0.115149</v>
+      </c>
+      <c r="O33">
+        <v>0.0002610423845732273</v>
+      </c>
+      <c r="P33">
+        <v>0.0003326764329971119</v>
+      </c>
+      <c r="Q33">
+        <v>0.222796119416</v>
+      </c>
+      <c r="R33">
+        <v>1.336776716496</v>
+      </c>
+      <c r="S33">
+        <v>3.975281666411393E-05</v>
+      </c>
+      <c r="T33">
+        <v>3.977531104379321E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>5.804552</v>
+      </c>
+      <c r="H34">
+        <v>11.609104</v>
+      </c>
+      <c r="I34">
+        <v>0.1522849123873311</v>
+      </c>
+      <c r="J34">
+        <v>0.119561553204878</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.04220533333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.126616</v>
+      </c>
+      <c r="O34">
+        <v>0.0002870380338962888</v>
+      </c>
+      <c r="P34">
+        <v>0.0003658056886326613</v>
+      </c>
+      <c r="Q34">
+        <v>0.2449830520106667</v>
+      </c>
+      <c r="R34">
+        <v>1.469898312064</v>
+      </c>
+      <c r="S34">
+        <v>4.371156184372812E-05</v>
+      </c>
+      <c r="T34">
+        <v>4.373629630410097E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>5.804552</v>
+      </c>
+      <c r="H35">
+        <v>11.609104</v>
+      </c>
+      <c r="I35">
+        <v>0.1522849123873311</v>
+      </c>
+      <c r="J35">
+        <v>0.119561553204878</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.113114</v>
+      </c>
+      <c r="N35">
+        <v>0.339342</v>
+      </c>
+      <c r="O35">
+        <v>0.0007692871398435774</v>
+      </c>
+      <c r="P35">
+        <v>0.0009803913722751039</v>
+      </c>
+      <c r="Q35">
+        <v>0.656576094928</v>
+      </c>
+      <c r="R35">
+        <v>3.939456569568</v>
+      </c>
+      <c r="S35">
+        <v>0.0001171508246917797</v>
+      </c>
+      <c r="T35">
+        <v>0.0001172171152178732</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>5.804552</v>
+      </c>
+      <c r="H36">
+        <v>11.609104</v>
+      </c>
+      <c r="I36">
+        <v>0.1522849123873311</v>
+      </c>
+      <c r="J36">
+        <v>0.119561553204878</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>51.860565</v>
+      </c>
+      <c r="N36">
+        <v>155.581695</v>
+      </c>
+      <c r="O36">
+        <v>0.3527031642371584</v>
+      </c>
+      <c r="P36">
+        <v>0.4494903414901093</v>
+      </c>
+      <c r="Q36">
+        <v>301.02734629188</v>
+      </c>
+      <c r="R36">
+        <v>1806.16407775128</v>
+      </c>
+      <c r="S36">
+        <v>0.05371137046459013</v>
+      </c>
+      <c r="T36">
+        <v>0.05374176337914847</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>5.804552</v>
+      </c>
+      <c r="H37">
+        <v>11.609104</v>
+      </c>
+      <c r="I37">
+        <v>0.1522849123873311</v>
+      </c>
+      <c r="J37">
+        <v>0.119561553204878</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.171684</v>
+      </c>
+      <c r="N37">
+        <v>0.343368</v>
+      </c>
+      <c r="O37">
+        <v>0.001167621101869837</v>
+      </c>
+      <c r="P37">
+        <v>0.0009920228698933756</v>
+      </c>
+      <c r="Q37">
+        <v>0.996548705568</v>
+      </c>
+      <c r="R37">
+        <v>3.986194822272</v>
+      </c>
+      <c r="S37">
+        <v>0.0001778110771998472</v>
+      </c>
+      <c r="T37">
+        <v>0.0001186077951392126</v>
       </c>
     </row>
   </sheetData>
